--- a/Runes.xlsx
+++ b/Runes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -121,8 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,11 +159,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -177,10 +172,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -198,7 +193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="0"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -215,10 +210,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -235,8 +230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="609600"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="2343150"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -253,10 +248,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -273,8 +268,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="1219200"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="4686300"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -291,10 +286,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -311,8 +306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="1828800"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="7029450"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -329,10 +324,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -349,8 +344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="2438400"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="9372600"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -367,10 +362,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -387,8 +382,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="3048000"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="11715750"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -405,10 +400,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -425,8 +420,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="3657600"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="14058900"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -443,10 +438,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -463,8 +458,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="4267200"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="16402050"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,10 +476,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -501,8 +496,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="4876800"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="18745200"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -519,10 +514,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -539,8 +534,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="5486400"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="21088350"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -557,10 +552,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -577,8 +572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="6096000"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="23431500"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -595,10 +590,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -615,8 +610,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="6705600"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="25774650"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -633,10 +628,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -653,8 +648,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="7315200"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="28117800"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -671,10 +666,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -691,8 +686,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="7924800"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="30460950"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -709,10 +704,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -729,8 +724,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="8534400"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="32804100"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -747,10 +742,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -767,8 +762,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="9144000"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="35147250"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,10 +780,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -805,8 +800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="9753600"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="37490400"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,10 +818,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -843,8 +838,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="10363200"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="39833550"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -861,10 +856,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -881,8 +876,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="10972800"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="42176700"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -899,10 +894,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -919,8 +914,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="11582400"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="44519850"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,10 +932,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -957,8 +952,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="12192000"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="46863000"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -975,10 +970,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -995,8 +990,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="12801600"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="49206150"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,10 +1008,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1033,8 +1028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="13411200"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="51549300"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1051,10 +1046,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1071,8 +1066,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="14020800"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="53892450"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1089,10 +1084,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1109,8 +1104,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="14630400"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="56235600"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1127,10 +1122,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1147,8 +1142,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="15240000"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="58578750"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,10 +1160,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,8 +1180,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="15849600"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="60921900"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1203,10 +1198,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1223,8 +1218,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="16459200"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="63265050"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1241,10 +1236,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1261,8 +1256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="17068800"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="65608200"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,10 +1274,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1299,8 +1294,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="17678400"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="67951350"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,10 +1312,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1337,8 +1332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="18288000"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="70294500"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1355,10 +1350,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1375,8 +1370,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="18897600"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="72637650"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1393,10 +1388,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1413,8 +1408,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="19507200"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="74980800"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1431,10 +1426,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1451,8 +1446,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="20116800"/>
-          <a:ext cx="3714750" cy="381000"/>
+          <a:off x="1047750" y="77323950"/>
+          <a:ext cx="7143750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,7 +1460,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1539,7 +1534,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1574,7 +1568,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1750,358 +1743,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="170" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>11997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
+      <c r="B2">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="170" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
+      <c r="B4">
+        <v>6398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="170" customHeight="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>14749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
+      <c r="B6">
+        <v>16222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="170" customHeight="1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>7478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
+      <c r="B8">
+        <v>7885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="170" customHeight="1">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
+      <c r="B10">
+        <v>10690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="170" customHeight="1">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>19998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
+      <c r="B12">
+        <v>23190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="170" customHeight="1">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>10997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
+      <c r="B14">
+        <v>14989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="170" customHeight="1">
       <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>54985</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
+      <c r="B16">
+        <v>46983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="170" customHeight="1">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>124992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
+      <c r="B18">
+        <v>104891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="170" customHeight="1">
       <c r="A19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>117996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
+      <c r="B20">
+        <v>98999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="170" customHeight="1">
       <c r="A21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>107772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
+      <c r="B22">
+        <v>98885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="170" customHeight="1">
       <c r="A23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>57190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
+      <c r="B24">
+        <v>57183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="170" customHeight="1">
       <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>118394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
+      <c r="B26">
+        <v>118485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="170" customHeight="1">
       <c r="A27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>38995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
+      <c r="B28">
+        <v>37898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="170" customHeight="1">
       <c r="A29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>23317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
+      <c r="B30">
+        <v>23091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="170" customHeight="1">
       <c r="A31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>61897</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
+      <c r="B32">
+        <v>53376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="170" customHeight="1">
       <c r="A33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>32528</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
+      <c r="B34">
+        <v>18989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="170" customHeight="1">
       <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <v>33898</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
+      <c r="B36">
+        <v>33891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="170" customHeight="1">
       <c r="A37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <v>72149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
+      <c r="B38">
+        <v>65974</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="170" customHeight="1">
       <c r="A39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>50492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
+      <c r="B40">
+        <v>48782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="170" customHeight="1">
       <c r="A41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <v>169996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
+      <c r="B42">
+        <v>149387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="170" customHeight="1">
       <c r="A43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D44">
-        <v>319990</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
+      <c r="B44">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="170" customHeight="1">
       <c r="A45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D46">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
+      <c r="B46">
+        <v>249999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="170" customHeight="1">
       <c r="A47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D48">
-        <v>289994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
+      <c r="B48">
+        <v>239999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="170" customHeight="1">
       <c r="A49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>299995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
+      <c r="B50">
+        <v>249994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="170" customHeight="1">
       <c r="A51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D52">
-        <v>329994</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
+      <c r="B52">
+        <v>329993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="170" customHeight="1">
       <c r="A53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D54">
-        <v>109996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
+      <c r="B54">
+        <v>99984</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="170" customHeight="1">
       <c r="A55" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D56">
-        <v>56999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
+      <c r="B56">
+        <v>56990</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="170" customHeight="1">
       <c r="A57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D58">
+    <row r="58" spans="1:2">
+      <c r="B58">
         <v>70887</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="170" customHeight="1">
       <c r="A59" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D60">
-        <v>78776</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
+      <c r="B60">
+        <v>77997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="170" customHeight="1">
       <c r="A61" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D62">
+    <row r="62" spans="1:2">
+      <c r="B62">
         <v>100000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="170" customHeight="1">
       <c r="A63" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D64">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
+      <c r="B64">
+        <v>221995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="170" customHeight="1">
       <c r="A65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D66">
-        <v>96998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
+      <c r="B66">
+        <v>103885</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="170" customHeight="1">
       <c r="A67" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D68">
-        <v>529988</v>
+    <row r="68" spans="1:2">
+      <c r="B68">
+        <v>529986</v>
       </c>
     </row>
   </sheetData>
